--- a/data/lossofsale_sg_chavakkad.xlsx
+++ b/data/lossofsale_sg_chavakkad.xlsx
@@ -206,12 +206,12 @@
     <col min="3" max="3" width="17.55" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
-    <col min="6" max="6" width="22.950000000000003" customWidth="1"/>
+    <col min="6" max="6" width="10.8" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="36.45" customWidth="1"/>
+    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="49.95" customWidth="1"/>
+    <col min="11" max="11" width="29.700000000000003" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">01-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">thanseer</t>
+          <t xml:space="preserve">Abdul razzaq</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9947454748</v>
+        <v>9746697775</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">07-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+          <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">.</t>
+          <t xml:space="preserve">BIG SIZE</t>
         </is>
       </c>
     </row>
@@ -337,20 +337,20 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">01-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">naji</t>
+          <t xml:space="preserve">fasil</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9074020097</v>
+        <v>9961122822</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
@@ -370,17 +370,17 @@
       </c>
       <c t="inlineStr" r="I4">
         <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J4">
+        <is>
           <t xml:space="preserve">-</t>
         </is>
       </c>
-      <c t="inlineStr" r="J4">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">BULK BOOKING KURTA COUSINS ARE ABROAD</t>
+          <t xml:space="preserve">GROOM IS NOT AVIALABLE</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">02-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">shamil</t>
+          <t xml:space="preserve">shaheer</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>8593988205</v>
+        <v>7559857541</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+          <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -423,17 +423,12 @@
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K5">
-        <is>
-          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -443,25 +438,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">02-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">jasim</t>
+          <t xml:space="preserve">ajmal</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>9562729920</v>
+        <v>8139089882</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">14-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">RASAL</t>
+          <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -471,12 +466,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,161 +481,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">trending armani kurta</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="65">
-        <v>5</v>
-      </c>
-      <c t="inlineStr" r="B7">
-        <is>
-          <t xml:space="preserve">02-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C7">
-        <is>
-          <t xml:space="preserve">sreeraj</t>
-        </is>
-      </c>
-      <c r="D7" s="65">
-        <v>9746497472</v>
-      </c>
-      <c t="inlineStr" r="E7">
-        <is>
-          <t xml:space="preserve">07-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F7">
-        <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G7">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H7">
-        <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I7">
-        <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J7">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K7">
-        <is>
-          <t xml:space="preserve">.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="65">
-        <v>6</v>
-      </c>
-      <c t="inlineStr" r="B8">
-        <is>
-          <t xml:space="preserve">03-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C8">
-        <is>
-          <t xml:space="preserve">sana</t>
-        </is>
-      </c>
-      <c r="D8" s="65">
-        <v>9633445624</v>
-      </c>
-      <c t="inlineStr" r="E8">
-        <is>
-          <t xml:space="preserve">21-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F8">
-        <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G8">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H8">
-        <is>
-          <t xml:space="preserve">ENQUIRY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I8">
-        <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J8">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K8">
-        <is>
-          <t xml:space="preserve">groom is abroad</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="65">
-        <v>7</v>
-      </c>
-      <c t="inlineStr" r="B9">
-        <is>
-          <t xml:space="preserve">03-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C9">
-        <is>
-          <t xml:space="preserve">Abishek</t>
-        </is>
-      </c>
-      <c r="D9" s="65">
-        <v>811390232</v>
-      </c>
-      <c t="inlineStr" r="E9">
-        <is>
-          <t xml:space="preserve">20-12-2025</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="F9">
-        <is>
-          <t xml:space="preserve">RASAL</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="G9">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H9">
-        <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="I9">
-        <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J9">
-        <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">CONFIRM TMRW</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_chavakkad.xlsx
+++ b/data/lossofsale_sg_chavakkad.xlsx
@@ -208,10 +208,10 @@
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="22.950000000000003" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
-    <col min="8" max="8" width="10.8" customWidth="1"/>
-    <col min="9" max="9" width="28.35" customWidth="1"/>
+    <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="14.850000000000001" customWidth="1"/>
+    <col min="11" max="11" width="29.700000000000003" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">aslam</t>
+          <t xml:space="preserve">zain</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>8592989565</v>
+        <v>7510601421</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">24-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+          <t xml:space="preserve">RASAL</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -317,7 +317,7 @@
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">embro kurta</t>
+          <t xml:space="preserve">lose</t>
         </is>
       </c>
     </row>
@@ -337,48 +337,467 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C4">
+        <is>
+          <t xml:space="preserve">NIMAL VB</t>
+        </is>
+      </c>
+      <c r="D4" s="65">
+        <v>7025830557</v>
+      </c>
+      <c t="inlineStr" r="E4">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F4">
+        <is>
+          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G4">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H4">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I4">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J4">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K4">
+        <is>
+          <t xml:space="preserve">CLOSED INDOWESTERN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c t="inlineStr" r="B5">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C5">
+        <is>
+          <t xml:space="preserve">muzamil</t>
+        </is>
+      </c>
+      <c r="D5" s="65">
+        <v>9037718484</v>
+      </c>
+      <c t="inlineStr" r="E5">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F5">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G5">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H5">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J5">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K5">
+        <is>
+          <t xml:space="preserve">loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">ajmal</t>
+        </is>
+      </c>
+      <c r="D6" s="65">
+        <v>7994281115</v>
+      </c>
+      <c t="inlineStr" r="E6">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F6">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G6">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H6">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I6">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J6">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K6">
+        <is>
+          <t xml:space="preserve">double breasted suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">Abdul razzaq</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>9746697775</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C4">
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">BIG SIZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">fasil</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>9961122822</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">GROOM IS NOT AVIALABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">shaheer</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>7559857541</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">ajmal</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>8139089882</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">14-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">CONFIRM TMRW</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>8592989565</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">embro kurta</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
         <is>
           <t xml:space="preserve">thaha</t>
         </is>
       </c>
-      <c r="D4" s="65">
+      <c r="D12" s="65">
         <v>9847692714</v>
       </c>
-      <c t="inlineStr" r="E4">
+      <c t="inlineStr" r="E12">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F4">
+      <c t="inlineStr" r="F12">
         <is>
           <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
-      <c t="inlineStr" r="G4">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H4">
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I4">
+      <c t="inlineStr" r="I12">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J4">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K4">
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
         <is>
           <t xml:space="preserve">embro kurta</t>
         </is>

--- a/data/lossofsale_sg_chavakkad.xlsx
+++ b/data/lossofsale_sg_chavakkad.xlsx
@@ -211,7 +211,7 @@
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
     <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
-    <col min="11" max="11" width="29.700000000000003" customWidth="1"/>
+    <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">zain</t>
+          <t xml:space="preserve">Shahul hameed</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>7510601421</v>
+        <v>9946508158</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">24-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">RASAL</t>
+          <t xml:space="preserve">Mohamed Aslam A S</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -317,7 +317,7 @@
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">lose</t>
+          <t xml:space="preserve">kids suit lavender</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">NIMAL VB</t>
+          <t xml:space="preserve">salman</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>7025830557</v>
+        <v>7736144146</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">23-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+          <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">CLOSED INDOWESTERN</t>
+          <t xml:space="preserve">embro kurta</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">muzamil</t>
+          <t xml:space="preserve">Raziq</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>9037718484</v>
+        <v>7034581604</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">11-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">MAHESH C</t>
+          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">loss</t>
+          <t xml:space="preserve">.</t>
         </is>
       </c>
     </row>
@@ -443,20 +443,20 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">ajmal</t>
+          <t xml:space="preserve">Yaseen</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>7994281115</v>
+        <v>9539373567</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
@@ -476,7 +476,7 @@
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">double breasted suit</t>
+          <t xml:space="preserve">DOUBLE BREAST</t>
         </is>
       </c>
     </row>
@@ -496,20 +496,20 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">Abdul razzaq</t>
+          <t xml:space="preserve">Edwin</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>9746697775</v>
+        <v>9061310529</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
@@ -524,12 +524,12 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">BIG SIZE</t>
+          <t xml:space="preserve">embro kurta</t>
         </is>
       </c>
     </row>
@@ -549,20 +549,20 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">fasil</t>
+          <t xml:space="preserve">Raeed</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>9961122822</v>
+        <v>9207897660</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
@@ -577,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">GROOM IS NOT AVIALABLE</t>
+          <t xml:space="preserve">BOOTCUT PANTS</t>
         </is>
       </c>
     </row>
@@ -602,25 +602,25 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">shaheer</t>
+          <t xml:space="preserve">zain</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>7559857541</v>
+        <v>7510601421</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">24-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">MAHESH C</t>
+          <t xml:space="preserve">RASAL</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -630,17 +630,22 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">lose</t>
         </is>
       </c>
     </row>
@@ -650,25 +655,25 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">ajmal</t>
+          <t xml:space="preserve">NIMAL VB</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>8139089882</v>
+        <v>7025830557</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">14-01-2026</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">MAHESH C</t>
+          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -678,12 +683,12 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -693,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">CONFIRM TMRW</t>
+          <t xml:space="preserve">CLOSED INDOWESTERN</t>
         </is>
       </c>
     </row>
@@ -703,25 +708,25 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">aslam</t>
+          <t xml:space="preserve">muzamil</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>8592989565</v>
+        <v>9037718484</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+          <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -731,12 +736,12 @@
       </c>
       <c t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -746,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">embro kurta</t>
+          <t xml:space="preserve">loss</t>
         </is>
       </c>
     </row>
@@ -756,50 +761,517 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">ajmal</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>7994281115</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">double breasted suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">Abdul razzaq</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>9746697775</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C12">
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">BIG SIZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">fasil</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>9961122822</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">GROOM IS NOT AVIALABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">shaheer</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>7559857541</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">ajmal</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>8139089882</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">14-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">CONFIRM TMRW</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>8592989565</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">MUHAMMED ASLAM VB</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">embro kurta</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
         <is>
           <t xml:space="preserve">thaha</t>
         </is>
       </c>
-      <c r="D12" s="65">
+      <c r="D18" s="65">
         <v>9847692714</v>
       </c>
-      <c t="inlineStr" r="E12">
+      <c t="inlineStr" r="E18">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F12">
+      <c t="inlineStr" r="F18">
         <is>
           <t xml:space="preserve">MAHESH C</t>
         </is>
       </c>
-      <c t="inlineStr" r="G12">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H12">
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I12">
+      <c t="inlineStr" r="I18">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J12">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K12">
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
         <is>
           <t xml:space="preserve">embro kurta</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">faisal</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>8714151963</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">sajadh</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>9072022771</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">MAHESH C</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">WHITE BENGALA NOT AVIALABLE IN OUR STORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">nandhu</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>8921731953</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">ANAS M J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">double brust suit</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_chavakkad.xlsx
+++ b/data/lossofsale_sg_chavakkad.xlsx
@@ -1275,6 +1275,155 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">athif</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>9633437635</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">BOOTCUT AND DOUBLE BRUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">Jemshid</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>9745172555</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">15-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">Adil</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>7559803880</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">26-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">RASAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
